--- a/Pembagian Kelompok UTS Teknologi WEB.xlsx
+++ b/Pembagian Kelompok UTS Teknologi WEB.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22821"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34f6d0a1ce55950d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uts teknologi_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5901A7-E51B-4232-9563-EC5E5BB57F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,9 +76,6 @@
     <t>27/04/2020 13.00</t>
   </si>
   <si>
-    <t>26/04/2020 15.00</t>
-  </si>
-  <si>
     <t>Pembayaran</t>
   </si>
   <si>
@@ -111,13 +107,16 @@
   </si>
   <si>
     <t>Detail Brand</t>
+  </si>
+  <si>
+    <t>27/04/2020 15.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +199,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -207,15 +215,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,14 +495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -514,16 +513,16 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -531,22 +530,22 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -554,20 +553,20 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -580,13 +579,13 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -599,13 +598,13 @@
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -618,13 +617,13 @@
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="E6" s="5"/>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -632,107 +631,95 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F6:G6"/>
@@ -744,6 +731,18 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
